--- a/muscle_makeメモ.xlsx
+++ b/muscle_makeメモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shizu\OneDrive\ドキュメント\研究matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\matlabまとめ\研究matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F69E616-3476-41CF-98DE-A2E5D9C68F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1CC11-0BF0-460E-9309-B8ED78BA5015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
+    <workbookView xWindow="525" yWindow="2640" windowWidth="12825" windowHeight="10335" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>筋肉名</t>
     <rPh sb="0" eb="2">
@@ -274,10 +274,111 @@
     <t>file_n(16,:)=file(10,:);</t>
   </si>
   <si>
-    <t>直方体 test_square</t>
+    <t>直方体 test_square5x5</t>
     <rPh sb="0" eb="3">
       <t>チョクホウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_n(7,:)=file(7,:);</t>
+  </si>
+  <si>
+    <t>file_n(8,:)=file(15,:);</t>
+  </si>
+  <si>
+    <t>file_n(9,:)=file(8,:);</t>
+  </si>
+  <si>
+    <t>file_n(10,:)=file(16,:);</t>
+  </si>
+  <si>
+    <t>file_n(12,:)=file(10,:);</t>
+  </si>
+  <si>
+    <t>file_n(13,:)=file(11,:);</t>
+  </si>
+  <si>
+    <t>file_n(14,:)=file(12,:);</t>
+  </si>
+  <si>
+    <t>file_n(15,:)=file(13,:);</t>
+  </si>
+  <si>
+    <t>file_n(16,:)=file(14,:);</t>
+  </si>
+  <si>
+    <t>直方体 test_square6x4</t>
+    <rPh sb="0" eb="3">
+      <t>チョクホウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_n(1,:)=file(11,:);</t>
+  </si>
+  <si>
+    <t>file_n(2,:)=file(12,:);</t>
+  </si>
+  <si>
+    <t>file_n(3,:)=file(13,:);</t>
+  </si>
+  <si>
+    <t>file_n(4,:)=file(16,:);</t>
+  </si>
+  <si>
+    <t>file_n(5,:)=file(15,:);</t>
+  </si>
+  <si>
+    <t>file_n(6,:)=file(10,:);</t>
+  </si>
+  <si>
+    <t>file_n(8,:)=file(9,:);</t>
+  </si>
+  <si>
+    <t>file_n(9,:)=file(5,:);</t>
+  </si>
+  <si>
+    <t>file_n(11,:)=file(4,:);</t>
+  </si>
+  <si>
+    <t>file_n(12,:)=file(7,:);</t>
+  </si>
+  <si>
+    <t>file_n(13,:)=file(6,:);</t>
+  </si>
+  <si>
+    <t>file_n(14,:)=file(1,:);</t>
+  </si>
+  <si>
+    <t>file_n(16,:)=file(3,:);</t>
+  </si>
+  <si>
+    <t>胸骨甲状筋 Sternothyroid</t>
+    <rPh sb="0" eb="2">
+      <t>キョウコツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_n(15,:)=file(2,:);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上腕二頭筋 brachialis</t>
+    <rPh sb="0" eb="5">
+      <t>ジョウワンニトウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biceps_ver2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,21 +743,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE830B3C-AC44-41C0-8360-858D209BF628}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,13 +776,25 @@
         <v>67</v>
       </c>
       <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -690,13 +808,25 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,13 +840,25 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -730,13 +872,25 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -750,13 +904,25 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -770,13 +936,25 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -790,13 +968,25 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -810,13 +1000,25 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -830,13 +1032,25 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -850,13 +1064,25 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -870,13 +1096,25 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -893,10 +1131,22 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -910,13 +1160,25 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -930,13 +1192,25 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -950,13 +1224,25 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -970,13 +1256,25 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -990,10 +1288,22 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/muscle_makeメモ.xlsx
+++ b/muscle_makeメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\matlabまとめ\研究matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1CC11-0BF0-460E-9309-B8ED78BA5015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930253E-0542-4095-9C6F-738C71C1676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2640" windowWidth="12825" windowHeight="10335" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>筋肉名</t>
     <rPh sb="0" eb="2">
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>biceps_ver2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE830B3C-AC44-41C0-8360-858D209BF628}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1306,6 +1310,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/muscle_makeメモ.xlsx
+++ b/muscle_makeメモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\matlabまとめ\研究matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930253E-0542-4095-9C6F-738C71C1676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6753EA7F-603E-487A-B6FD-247E9E0B88D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
+    <workbookView xWindow="4905" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{10AFF534-D6D8-4037-BD4E-654DED67188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>筋肉名</t>
     <rPh sb="0" eb="2">
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>conc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_n(1,:)=file(13,:);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -749,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE830B3C-AC44-41C0-8360-858D209BF628}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -827,7 +831,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
